--- a/user_accounts.xlsx
+++ b/user_accounts.xlsx
@@ -48,7 +48,7 @@
     <t>zalvo2020</t>
   </si>
   <si>
-    <t>calingzalvo@gmail.com</t>
+    <t>drazonhimitsu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,13 +414,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
